--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/87.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/87.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02920203236257267</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.922362817866901</v>
+        <v>-1.917575438709465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04507608672640867</v>
+        <v>0.05555748005514995</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01139837360705916</v>
+        <v>0.02223392123809309</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02076302159917987</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.786818522264774</v>
+        <v>-1.77303011476218</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004552736168202014</v>
+        <v>0.006424473183748983</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01349339305751037</v>
+        <v>0.02407080155265099</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.01662239435494236</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.757590561201342</v>
+        <v>-1.73874640428113</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04870712055892891</v>
+        <v>-0.04089368964079229</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009471774202587114</v>
+        <v>0.02038759680880738</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0180263394659656</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.781709256197032</v>
+        <v>-1.760239635382491</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08459633054370588</v>
+        <v>-0.07829868003938184</v>
       </c>
       <c r="G5" t="n">
-        <v>0.033247333029834</v>
+        <v>0.04614012365240794</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.01963361939876965</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.747952055112057</v>
+        <v>-1.729274744218703</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1438723166327685</v>
+        <v>-0.1403874382982088</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03930415860859905</v>
+        <v>0.05517027135130998</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01438875956859951</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.605719752263523</v>
+        <v>-1.5842477704203</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1993076960658574</v>
+        <v>-0.2039290162059962</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03491264526017013</v>
+        <v>0.04851059644908677</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.003784649162237484</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.465093735928277</v>
+        <v>-1.446804420748324</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2942147530038037</v>
+        <v>-0.3073971631446969</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06193068347729644</v>
+        <v>0.07692636364592809</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.03988441157910805</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.244665737152647</v>
+        <v>-1.227468004233316</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3795501996651205</v>
+        <v>-0.4036563025078405</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08670574444656927</v>
+        <v>0.1026411140306174</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.09458951197128451</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9469880279418217</v>
+        <v>-0.9407194967912417</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4227648946404309</v>
+        <v>-0.4543082378312966</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1281449458530525</v>
+        <v>0.1457424796291941</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1637229895642835</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7453837238378264</v>
+        <v>-0.7480154838086411</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5261590626804304</v>
+        <v>-0.5670930039489761</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1273359000247039</v>
+        <v>0.144946025953816</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2443107610994656</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5197260465316745</v>
+        <v>-0.5322945892152605</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6490946781113781</v>
+        <v>-0.6986589662220154</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1402160984943074</v>
+        <v>0.1575759553831327</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3388594700479015</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2723469053515732</v>
+        <v>-0.2911894882526638</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7845673558434857</v>
+        <v>-0.8340072964435402</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2040441478821716</v>
+        <v>0.2208672642506334</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4517002541385632</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04689542455031182</v>
+        <v>-0.07059385644061497</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.900042120639468</v>
+        <v>-0.9516628647320847</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2680972820043818</v>
+        <v>0.2858553657308962</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5861527104405083</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3029019928145826</v>
+        <v>0.2785645091610314</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.040095981024121</v>
+        <v>-1.088910249023459</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3032120745814789</v>
+        <v>0.317781195568238</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7406991469023901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5692276021577803</v>
+        <v>0.5426738995814377</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.18526382953388</v>
+        <v>-1.226443317785349</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3275652984262431</v>
+        <v>0.3369196940641331</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.90447573796267</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8206016038677427</v>
+        <v>0.7925935076233183</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.317969381650741</v>
+        <v>-1.353797991899348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3573882387175272</v>
+        <v>0.3628784174126241</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.065988687963688</v>
       </c>
       <c r="E18" t="n">
-        <v>1.060200368531255</v>
+        <v>1.028823871367247</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.516823087340264</v>
+        <v>-1.549910543289126</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4070847444343539</v>
+        <v>0.4105444384629728</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.223367280714313</v>
       </c>
       <c r="E19" t="n">
-        <v>1.331273219544295</v>
+        <v>1.305652910306884</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.721088270768818</v>
+        <v>-1.751783217653303</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4426874829390541</v>
+        <v>0.4446502847833161</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.377611961046967</v>
       </c>
       <c r="E20" t="n">
-        <v>1.62580367752208</v>
+        <v>1.600926305309923</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.922557996237942</v>
+        <v>-1.948541903892374</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5079447416890593</v>
+        <v>0.5106882570174864</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.516387519894007</v>
       </c>
       <c r="E21" t="n">
-        <v>1.827040448161252</v>
+        <v>1.809968636771624</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.150249306248814</v>
+        <v>-2.17306786145031</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5822148339276323</v>
+        <v>0.5847505787320477</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.62015444408077</v>
       </c>
       <c r="E22" t="n">
-        <v>1.96144908896736</v>
+        <v>1.947715772134011</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.318877122752</v>
+        <v>-2.340417574427</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6442862779761249</v>
+        <v>0.6471273824900726</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.680543572838775</v>
       </c>
       <c r="E23" t="n">
-        <v>2.159654298778907</v>
+        <v>2.154124769605777</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.471002922787469</v>
+        <v>-2.491100785937796</v>
       </c>
       <c r="G23" t="n">
-        <v>0.701722235712387</v>
+        <v>0.7049977695038138</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.705142841509593</v>
       </c>
       <c r="E24" t="n">
-        <v>2.26651445692401</v>
+        <v>2.269342969284987</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.711990759325528</v>
+        <v>-2.734611775127301</v>
       </c>
       <c r="G24" t="n">
-        <v>0.748750779018609</v>
+        <v>0.7504869221094036</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.703608788640168</v>
       </c>
       <c r="E25" t="n">
-        <v>2.411371436657312</v>
+        <v>2.42476476536046</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.872206230634922</v>
+        <v>-2.896051046303506</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7914381775882836</v>
+        <v>0.7976335168497232</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.67854125544581</v>
       </c>
       <c r="E26" t="n">
-        <v>2.560497156247582</v>
+        <v>2.580742190185751</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.043047905032217</v>
+        <v>-3.067650610907707</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8218702632795111</v>
+        <v>0.8267575926511498</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.629311612663571</v>
       </c>
       <c r="E27" t="n">
-        <v>2.612233590745614</v>
+        <v>2.63847563753594</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.163993960293841</v>
+        <v>-3.197360804636733</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8634133499480001</v>
+        <v>0.8689523232358572</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.558090719378339</v>
       </c>
       <c r="E28" t="n">
-        <v>2.626922337185593</v>
+        <v>2.653150217803826</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.25181399613813</v>
+        <v>-3.28983600203227</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8891973571740267</v>
+        <v>0.8979992721003401</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.470648424144356</v>
       </c>
       <c r="E29" t="n">
-        <v>2.635585738429231</v>
+        <v>2.665287479248176</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.343920873059283</v>
+        <v>-3.390997423948704</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8894916987497099</v>
+        <v>0.899489868208212</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.375212525409504</v>
       </c>
       <c r="E30" t="n">
-        <v>2.633111380370547</v>
+        <v>2.667114915448006</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.379593655414881</v>
+        <v>-3.435104587765792</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8995024603611823</v>
+        <v>0.9077125440978867</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.280534468850084</v>
       </c>
       <c r="E31" t="n">
-        <v>2.622606376754986</v>
+        <v>2.657727465408569</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.458923432118875</v>
+        <v>-3.524046112234009</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8641232325717068</v>
+        <v>0.874080477533055</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.190603352022338</v>
       </c>
       <c r="E32" t="n">
-        <v>2.585706646494334</v>
+        <v>2.619906933961955</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.503227348326125</v>
+        <v>-3.57926585104748</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8608854752391912</v>
+        <v>0.8718784247823552</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.10681864977171</v>
       </c>
       <c r="E33" t="n">
-        <v>2.51764291165105</v>
+        <v>2.550355751049042</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.542058400048613</v>
+        <v>-3.626029172131763</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8736397521790907</v>
+        <v>0.8891737468872072</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.028268467441857</v>
       </c>
       <c r="E34" t="n">
-        <v>2.459571050189782</v>
+        <v>2.492071397006399</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.561498323206238</v>
+        <v>-3.646365499178967</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8686642777366592</v>
+        <v>0.8866143917959723</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9531966502465474</v>
       </c>
       <c r="E35" t="n">
-        <v>2.399752027503871</v>
+        <v>2.429367197271143</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.532950338403207</v>
+        <v>-3.621684879356972</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8208109484108758</v>
+        <v>0.8404657251785574</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8806422861010008</v>
       </c>
       <c r="E36" t="n">
-        <v>2.314427598976403</v>
+        <v>2.346507682687633</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.514164420190483</v>
+        <v>-3.6035899555385</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8126701215155085</v>
+        <v>0.8337430895114822</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8109947199339208</v>
       </c>
       <c r="E37" t="n">
-        <v>2.164399966429628</v>
+        <v>2.191488835507213</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.459625444646975</v>
+        <v>-3.549225696117456</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7671180081450667</v>
+        <v>0.7878132115519281</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7447401408365121</v>
       </c>
       <c r="E38" t="n">
-        <v>2.080251330185772</v>
+        <v>2.109079490392394</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.417721907599708</v>
+        <v>-3.506481632859415</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7585726583355252</v>
+        <v>0.7766518419627849</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6808062822629111</v>
       </c>
       <c r="E39" t="n">
-        <v>1.996744893743407</v>
+        <v>2.022890925367332</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.308218971349941</v>
+        <v>-3.394656231396168</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7045397299395152</v>
+        <v>0.7216320035777194</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6175413470955466</v>
       </c>
       <c r="E40" t="n">
-        <v>1.871920455366898</v>
+        <v>1.898164076176345</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.226421919673307</v>
+        <v>-3.310775178402933</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6709737721777781</v>
+        <v>0.6876725410356571</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5548029407688915</v>
       </c>
       <c r="E41" t="n">
-        <v>1.763297395805938</v>
+        <v>1.784450638777098</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.168884437703722</v>
+        <v>-3.252500268475017</v>
       </c>
       <c r="G41" t="n">
-        <v>0.625138335365502</v>
+        <v>0.6394571873119744</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4934304991675397</v>
       </c>
       <c r="E42" t="n">
-        <v>1.62953095480132</v>
+        <v>1.644868197119274</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.108143826822289</v>
+        <v>-3.189608760464327</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5786890310959187</v>
+        <v>0.5918887554471464</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4333026822743616</v>
       </c>
       <c r="E43" t="n">
-        <v>1.507431143523783</v>
+        <v>1.520380598834724</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.004317590533492</v>
+        <v>-3.081032921477006</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5245286071510834</v>
+        <v>0.5367209592646786</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3748236752192529</v>
       </c>
       <c r="E44" t="n">
-        <v>1.317203062618988</v>
+        <v>1.325029085690095</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.950772608065086</v>
+        <v>-3.025159964728195</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4792676873180821</v>
+        <v>0.4897176002643974</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3183375724629655</v>
       </c>
       <c r="E45" t="n">
-        <v>1.136178271516439</v>
+        <v>1.140747649025575</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.838018535320271</v>
+        <v>-2.90825362954139</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4333724377791967</v>
+        <v>0.4422058330879361</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2645679233366513</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9642623290688566</v>
+        <v>0.9610859584820718</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.680157796616343</v>
+        <v>-2.744572168126892</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3767880243875582</v>
+        <v>0.3855726251035373</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2147446272888082</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8901417686468072</v>
+        <v>0.8846279796648908</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.636119102631032</v>
+        <v>-2.699856645919422</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3410955667929438</v>
+        <v>0.3491277863689412</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1710234937329476</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7462449405774982</v>
+        <v>0.7351544018488136</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.55986574629962</v>
+        <v>-2.621590119131866</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3493324088547103</v>
+        <v>0.356130597439608</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1340331112623627</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6116206591517718</v>
+        <v>0.5960520360229866</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.502503767462059</v>
+        <v>-2.563541867957418</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3056376380474032</v>
+        <v>0.3115528019052512</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1030472885537413</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4800484008022473</v>
+        <v>0.4596774453343737</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.443270279889272</v>
+        <v>-2.503777935940752</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2597754429100651</v>
+        <v>0.2631768982311959</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07722792374434173</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3672998371243577</v>
+        <v>0.3440704629322021</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.415066218264245</v>
+        <v>-2.474740431190997</v>
       </c>
       <c r="G51" t="n">
-        <v>0.242950752522482</v>
+        <v>0.2464025764554944</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05536954136723226</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2114137054081014</v>
+        <v>0.1854077614859715</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.418828910973715</v>
+        <v>-2.479643500753849</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2280432174246432</v>
+        <v>0.231768920684762</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03690698569556483</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1551629840701788</v>
+        <v>0.1234764051392746</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.331057669722185</v>
+        <v>-2.387215523931951</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1913292214203047</v>
+        <v>0.1942899513874713</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02062735862079529</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05261406429831766</v>
+        <v>0.02001612829618042</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.289369773294536</v>
+        <v>-2.343033594206601</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1683359500963442</v>
+        <v>0.1711880727441411</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.00516386400425426</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.03523666491883762</v>
+        <v>-0.06919140540353606</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.248922990944033</v>
+        <v>-2.299156237181224</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1515254258808529</v>
+        <v>0.1534032306925646</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01117850043501678</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.07468788017511806</v>
+        <v>-0.1099427604540109</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.223658410028036</v>
+        <v>-2.270252524056779</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1228483715098757</v>
+        <v>0.1247214542642235</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.02948236791507702</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1451740304460842</v>
+        <v>-0.182742718833289</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.198598451597808</v>
+        <v>-2.24315814591227</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1218598875016988</v>
+        <v>0.1250913487577291</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.04982244950229411</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2221829159557203</v>
+        <v>-0.2592557883197154</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.182014586135784</v>
+        <v>-2.224869617741877</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1079864829665546</v>
+        <v>0.111469787281993</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.07188756746273614</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2968606791467102</v>
+        <v>-0.3317692752189168</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.176264694285672</v>
+        <v>-2.21776921748569</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08764700788110708</v>
+        <v>0.09100439066684145</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09515133797678625</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3376639768281879</v>
+        <v>-0.3735563348512074</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.187474071458015</v>
+        <v>-2.229829351993095</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06087136860866108</v>
+        <v>0.06307971743584594</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1195438309366977</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3647260875807106</v>
+        <v>-0.399324601886021</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.136565571017787</v>
+        <v>-2.173565251492641</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0229390818044358</v>
+        <v>0.02329638414497106</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1454114618494676</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4064895369261817</v>
+        <v>-0.442270139591589</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.118990073509343</v>
+        <v>-2.153540580231454</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05825692284818063</v>
+        <v>0.05921550049305275</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1728383126665387</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4170732414978076</v>
+        <v>-0.4523564541208838</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.144513580570795</v>
+        <v>-2.176664495142483</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02702680946245369</v>
+        <v>0.02727707850274049</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2014070870652505</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4046809889558072</v>
+        <v>-0.4429548379093548</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.115131365633475</v>
+        <v>-2.141904643877239</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009841668696092777</v>
+        <v>0.009243541429998515</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2306528467955354</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4585218870190186</v>
+        <v>-0.4954609677577031</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.12518226473254</v>
+        <v>-2.1517076349647</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009581955541078163</v>
+        <v>0.00962130601911068</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2602191173461912</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4781341652704251</v>
+        <v>-0.515090560219444</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.113957934378545</v>
+        <v>-2.138994282521954</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02325365734837549</v>
+        <v>-0.02230294979910987</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2903744957579851</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5004616265060754</v>
+        <v>-0.5341676719696083</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.145428872689831</v>
+        <v>-2.17229265703307</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02322532500419207</v>
+        <v>-0.02159621521364586</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3208788634763704</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4464711966263405</v>
+        <v>-0.4811704481554142</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.177797788909819</v>
+        <v>-2.203528279485722</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04507900648433082</v>
+        <v>-0.04408422639966879</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3506976301093688</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4101003367904455</v>
+        <v>-0.442589665473213</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.203617211566075</v>
+        <v>-2.230322019978062</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07453362630123059</v>
+        <v>-0.0738599461173139</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3783390854735277</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3314639155093845</v>
+        <v>-0.3618110041680617</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.21285670380811</v>
+        <v>-2.239458413967652</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08269648946429596</v>
+        <v>-0.08203697545247098</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4028831840730379</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2776182953888092</v>
+        <v>-0.3082849099291105</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.238341647401089</v>
+        <v>-2.265389591981521</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08790806677492254</v>
+        <v>-0.08846841758210558</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4242988992514919</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2176292786377974</v>
+        <v>-0.2492403046508791</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.290810787800087</v>
+        <v>-2.318787403662085</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07261017493500116</v>
+        <v>-0.07420465630487875</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4431314875080712</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.08979374168224076</v>
+        <v>-0.121412637790929</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.300482348290919</v>
+        <v>-2.328015090760711</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08805130251496091</v>
+        <v>-0.08979846373960466</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4607516865262332</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.0161989036467058</v>
+        <v>-0.04724643081436187</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.34453206041008</v>
+        <v>-2.371884577690482</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07615958805353421</v>
+        <v>-0.078419879511722</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4770907782897688</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07961793634335226</v>
+        <v>0.04670991857431878</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.37530649526019</v>
+        <v>-2.403126496219619</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08124209579621412</v>
+        <v>-0.08428624877680965</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4904132522378168</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2163750136784412</v>
+        <v>0.1833867209342214</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.399429125303684</v>
+        <v>-2.426091435199396</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09170302687637849</v>
+        <v>-0.09635267936070073</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4989894319932128</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3603536907420578</v>
+        <v>0.326910506471782</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.338654673011143</v>
+        <v>-2.36085699972665</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09947395927823999</v>
+        <v>-0.1069977706780573</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5023669753423</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5440495922934545</v>
+        <v>0.5096856068372179</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.33343601261447</v>
+        <v>-2.353285180743633</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07503101634356162</v>
+        <v>-0.08111932230475268</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4998866750730444</v>
       </c>
       <c r="E79" t="n">
-        <v>0.664340855600617</v>
+        <v>0.6298273383278568</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.266036513840375</v>
+        <v>-2.284036209502009</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0633612385782383</v>
+        <v>-0.07266841364248927</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4916274834513396</v>
       </c>
       <c r="E80" t="n">
-        <v>0.819540714979986</v>
+        <v>0.7858110592296337</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.245423159427821</v>
+        <v>-2.26082729755843</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04285806550417555</v>
+        <v>-0.05187404703098589</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4785048153700119</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9421032878791854</v>
+        <v>0.9068688698488695</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.206094717663002</v>
+        <v>-2.220071220450591</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01548272494651399</v>
+        <v>-0.02546358019468165</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4605286303377769</v>
       </c>
       <c r="E82" t="n">
-        <v>1.094189737436622</v>
+        <v>1.059975283796909</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.150213103809024</v>
+        <v>-2.163905496145219</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01974359470787495</v>
+        <v>-0.03095375888977845</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4379296666374217</v>
       </c>
       <c r="E83" t="n">
-        <v>1.162916134329974</v>
+        <v>1.128726864996201</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.093464992428771</v>
+        <v>-2.104363500824657</v>
       </c>
       <c r="G83" t="n">
-        <v>0.007109171501514782</v>
+        <v>-0.005673437782568103</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4113514269112399</v>
       </c>
       <c r="E84" t="n">
-        <v>1.299408776452684</v>
+        <v>1.264177506460611</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.012107879096542</v>
+        <v>-2.02152130045148</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0359861263008972</v>
+        <v>0.02331212433618406</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3818174744234575</v>
       </c>
       <c r="E85" t="n">
-        <v>1.309548607632103</v>
+        <v>1.274073364676228</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.856792329311757</v>
+        <v>-1.861608827822937</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05171372536093367</v>
+        <v>0.03888861756057567</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3506634960068519</v>
       </c>
       <c r="E86" t="n">
-        <v>1.353695121927224</v>
+        <v>1.31678122549448</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.762237065647421</v>
+        <v>-1.764497357105609</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0712205443312131</v>
+        <v>0.05909115298247</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3184709957156571</v>
       </c>
       <c r="E87" t="n">
-        <v>1.363284046414187</v>
+        <v>1.322121872373053</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.572079815603085</v>
+        <v>-1.571772094864871</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06534787898964023</v>
+        <v>0.05295090439027601</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2864658763502511</v>
       </c>
       <c r="E88" t="n">
-        <v>1.356468543618955</v>
+        <v>1.31104549981646</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424976710583687</v>
+        <v>-1.423793048204469</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09403752551358786</v>
+        <v>0.08081104283729819</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2571228691957697</v>
       </c>
       <c r="E89" t="n">
-        <v>1.367947865070601</v>
+        <v>1.321457636303864</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.23151480739418</v>
+        <v>-1.231947662652538</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08776505931520463</v>
+        <v>0.07532873423780789</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2311712382843814</v>
       </c>
       <c r="E90" t="n">
-        <v>1.308191803149542</v>
+        <v>1.262211556578106</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065627358181179</v>
+        <v>-1.064594801637606</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09711158485748811</v>
+        <v>0.08472090633460909</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2099359363014411</v>
       </c>
       <c r="E91" t="n">
-        <v>1.246860148088061</v>
+        <v>1.202243002075671</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8753433995975782</v>
+        <v>-0.874954616874617</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0648253046413684</v>
+        <v>0.05228666832108712</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1957202079564435</v>
       </c>
       <c r="E92" t="n">
-        <v>1.232114736959716</v>
+        <v>1.187853319268741</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7101272695398122</v>
+        <v>-0.7120932194223167</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0472041605784072</v>
+        <v>0.03391471713726549</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1894382686966813</v>
       </c>
       <c r="E93" t="n">
-        <v>1.21184924077297</v>
+        <v>1.170194398746868</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5345296963675075</v>
+        <v>-0.5356692862113291</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02943348469892244</v>
+        <v>0.01833979793199519</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1889115389422821</v>
       </c>
       <c r="E94" t="n">
-        <v>1.179385096396143</v>
+        <v>1.138279587043375</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4026111538112969</v>
+        <v>-0.4092173120633958</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009441867839282402</v>
+        <v>-0.003394258094924708</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1902221498410876</v>
       </c>
       <c r="E95" t="n">
-        <v>1.147427786176375</v>
+        <v>1.111066370455208</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.266907095268358</v>
+        <v>-0.2736974137576492</v>
       </c>
       <c r="G95" t="n">
-        <v>0.004058722444434049</v>
+        <v>-0.007363934318845042</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1886765762147639</v>
       </c>
       <c r="E96" t="n">
-        <v>1.115813612125051</v>
+        <v>1.07851565502671</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1587090208701488</v>
+        <v>-0.1674951956052492</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03075700649961586</v>
+        <v>-0.04222688383653397</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.180799667434307</v>
       </c>
       <c r="E97" t="n">
-        <v>1.062536212907265</v>
+        <v>1.026754036222737</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07674827120490066</v>
+        <v>-0.08521492005837707</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06134019802648823</v>
+        <v>-0.0727124861778857</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1684317966056924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9998808077647698</v>
+        <v>0.9684980145242766</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06572541529843194</v>
+        <v>-0.07194121680844837</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08624275454458641</v>
+        <v>-0.09681544098236312</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1559499079178774</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9466207227573185</v>
+        <v>0.9187401220617193</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.003679155555880132</v>
+        <v>-0.01055604509684284</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1232180377230609</v>
+        <v>-0.1346343984098547</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1481565431075501</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9243467781717923</v>
+        <v>0.9028566951086741</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04482739170524316</v>
+        <v>0.04117094528646167</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1247133558882965</v>
+        <v>-0.1350766977829402</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1452436149295772</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8617984063295456</v>
+        <v>0.8445849332190013</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07003215989463107</v>
+        <v>0.06523454961290658</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1553658042565061</v>
+        <v>-0.1642291059285503</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1480613927637905</v>
       </c>
       <c r="E102" t="n">
-        <v>0.798250532345273</v>
+        <v>0.7864139085530918</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1137552630461216</v>
+        <v>0.1109991555647241</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1470093367415208</v>
+        <v>-0.1550809067955507</v>
       </c>
     </row>
   </sheetData>
